--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -709,10 +709,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>20072700</t>
-        </is>
+      <c r="A20" t="n">
+        <v>20072700</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,6 +738,102 @@
         <v>-30000000000</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20072900</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20073000</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>165000000000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>186000000000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-21000000000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20073100</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>196000000000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>151000000000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>45000000000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20080100</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20080200</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20080300</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +723,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>20072800</t>
-        </is>
+      <c r="A21" t="n">
+        <v>20072800</v>
       </c>
       <c r="B21" t="n">
         <v>120000000000</v>
@@ -741,7 +739,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20072900</t>
+          <t>20070100</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -757,39 +755,39 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20073000</t>
+          <t>20070200</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165000000000</v>
+        <v>175000000000</v>
       </c>
       <c r="C23" t="n">
-        <v>186000000000</v>
+        <v>152000000000</v>
       </c>
       <c r="D23" t="n">
-        <v>-21000000000</v>
+        <v>23000000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20073100</t>
+          <t>20070300</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>196000000000</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>151000000000</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>45000000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20080100</t>
+          <t>20070400</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -805,7 +803,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20080200</t>
+          <t>20070500</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -821,7 +819,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20080300</t>
+          <t>20070600</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -831,6 +829,38 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20070700</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>145000000000</v>
+      </c>
+      <c r="C28" t="n">
+        <v>150000000000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-5000000000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20070800</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,11 +450,6 @@
           <t>total_maturities</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_issues_sub_total_maturities</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,9 +461,6 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -480,9 +472,6 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -494,9 +483,6 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -508,9 +494,6 @@
       <c r="C5" t="n">
         <v>170000000000</v>
       </c>
-      <c r="D5" t="n">
-        <v>-45000000000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -522,9 +505,6 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -536,9 +516,6 @@
       <c r="C7" t="n">
         <v>153000000000</v>
       </c>
-      <c r="D7" t="n">
-        <v>32000000000</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -550,9 +527,6 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -564,9 +538,6 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -578,9 +549,6 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -592,9 +560,6 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -606,9 +571,6 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -620,9 +582,6 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -634,9 +593,6 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" t="n">
-        <v>25000000</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -648,9 +604,6 @@
       <c r="C15" t="n">
         <v>180000000000</v>
       </c>
-      <c r="D15" t="n">
-        <v>-45000000000</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -662,9 +615,6 @@
       <c r="C16" t="n">
         <v>56000000000</v>
       </c>
-      <c r="D16" t="n">
-        <v>38000000000</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -676,9 +626,6 @@
       <c r="C17" t="n">
         <v>184000000000</v>
       </c>
-      <c r="D17" t="n">
-        <v>25000000000</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -690,9 +637,6 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -704,9 +648,6 @@
       <c r="C19" t="n">
         <v>155000000000</v>
       </c>
-      <c r="D19" t="n">
-        <v>20000000000</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -718,9 +659,6 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -732,15 +670,10 @@
       <c r="C21" t="n">
         <v>150000000000</v>
       </c>
-      <c r="D21" t="n">
-        <v>-30000000000</v>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>20070100</t>
-        </is>
+      <c r="A22" t="n">
+        <v>20070100</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -748,15 +681,10 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>20070200</t>
-        </is>
+      <c r="A23" t="n">
+        <v>20070200</v>
       </c>
       <c r="B23" t="n">
         <v>175000000000</v>
@@ -764,15 +692,10 @@
       <c r="C23" t="n">
         <v>152000000000</v>
       </c>
-      <c r="D23" t="n">
-        <v>23000000000</v>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>20070300</t>
-        </is>
+      <c r="A24" t="n">
+        <v>20070300</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -780,15 +703,10 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>20070400</t>
-        </is>
+      <c r="A25" t="n">
+        <v>20070400</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -796,15 +714,10 @@
       <c r="C25" t="n">
         <v>0</v>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>20070500</t>
-        </is>
+      <c r="A26" t="n">
+        <v>20070500</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -812,15 +725,10 @@
       <c r="C26" t="n">
         <v>0</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>20070600</t>
-        </is>
+      <c r="A27" t="n">
+        <v>20070600</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -828,15 +736,10 @@
       <c r="C27" t="n">
         <v>0</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>20070700</t>
-        </is>
+      <c r="A28" t="n">
+        <v>20070700</v>
       </c>
       <c r="B28" t="n">
         <v>145000000000</v>
@@ -844,23 +747,471 @@
       <c r="C28" t="n">
         <v>150000000000</v>
       </c>
-      <c r="D28" t="n">
-        <v>-5000000000</v>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>20070800</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20053000</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20053100</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>97000000000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20060100</v>
+      </c>
+      <c r="B32" t="n">
+        <v>147000000000</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20060200</v>
+      </c>
+      <c r="B33" t="n">
+        <v>230000000000</v>
+      </c>
+      <c r="C33" t="n">
+        <v>150000000000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20060300</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20060400</v>
+      </c>
+      <c r="B35" t="n">
+        <v>222000000000</v>
+      </c>
+      <c r="C35" t="n">
+        <v>146000000000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20060500</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20060600</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20060700</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>20060800</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20060900</v>
+      </c>
+      <c r="B40" t="n">
+        <v>230000000000</v>
+      </c>
+      <c r="C40" t="n">
+        <v>195000000000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20061000</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>20061100</v>
+      </c>
+      <c r="B42" t="n">
+        <v>217000000000</v>
+      </c>
+      <c r="C42" t="n">
+        <v>153000000000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>20061200</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20061300</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>20061400</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>20061500</v>
+      </c>
+      <c r="B46" t="n">
+        <v>92000000000</v>
+      </c>
+      <c r="C46" t="n">
+        <v>24000000000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>20061600</v>
+      </c>
+      <c r="B47" t="n">
+        <v>205000000000</v>
+      </c>
+      <c r="C47" t="n">
+        <v>195000000000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>20061700</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>20061800</v>
+      </c>
+      <c r="B49" t="n">
+        <v>238000000000</v>
+      </c>
+      <c r="C49" t="n">
+        <v>169000000000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>20061900</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>20062000</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>20062100</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>20062200</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>20062300</v>
+      </c>
+      <c r="B54" t="n">
+        <v>190000000000</v>
+      </c>
+      <c r="C54" t="n">
+        <v>185000000000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>20062400</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>20062500</v>
+      </c>
+      <c r="B56" t="n">
+        <v>211000000000</v>
+      </c>
+      <c r="C56" t="n">
+        <v>146000000000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>20062600</v>
+      </c>
+      <c r="B57" t="n">
+        <v>20000000000</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>20062700</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>20062800</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>20062900</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>20063000</v>
+      </c>
+      <c r="B61" t="n">
+        <v>331000000000</v>
+      </c>
+      <c r="C61" t="n">
+        <v>248000000000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
-          <t>20070800</t>
+          <t>20072900</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20073000</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>165000000000</v>
+      </c>
+      <c r="C63" t="n">
+        <v>186000000000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20073100</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>196000000000</v>
+      </c>
+      <c r="C64" t="n">
+        <v>151000000000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20080100</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20080200</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20080300</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20080400</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>120000000000</v>
+      </c>
+      <c r="C68" t="n">
+        <v>145000000000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>20080500</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
         <v>0</v>
       </c>
     </row>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,106 +1112,3439 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" t="n">
+        <v>19080100</v>
+      </c>
+      <c r="B62" t="n">
+        <v>72000000000</v>
+      </c>
+      <c r="C62" t="n">
+        <v>78000000000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>19080200</v>
+      </c>
+      <c r="B63" t="n">
+        <v>35000000000</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>19080300</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>19080400</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>19080500</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>19080600</v>
+      </c>
+      <c r="B67" t="n">
+        <v>70000000000</v>
+      </c>
+      <c r="C67" t="n">
+        <v>75000000000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>19080700</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>19080800</v>
+      </c>
+      <c r="B69" t="n">
+        <v>78000000000</v>
+      </c>
+      <c r="C69" t="n">
+        <v>78000000000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>19080900</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>19081000</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>19081100</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>19081200</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>19081300</v>
+      </c>
+      <c r="B74" t="n">
+        <v>90000000000</v>
+      </c>
+      <c r="C74" t="n">
+        <v>70000000000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>19081400</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>19081500</v>
+      </c>
+      <c r="B76" t="n">
+        <v>196000000000</v>
+      </c>
+      <c r="C76" t="n">
+        <v>210750000000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>19081600</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>19081700</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>19081800</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>19081900</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>19082000</v>
+      </c>
+      <c r="B81" t="n">
+        <v>95000000000</v>
+      </c>
+      <c r="C81" t="n">
+        <v>70000000000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>19082100</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>19082200</v>
+      </c>
+      <c r="B83" t="n">
+        <v>87000000000</v>
+      </c>
+      <c r="C83" t="n">
+        <v>75000000000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>19082300</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>19082400</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>19082500</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>19082600</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>19082700</v>
+      </c>
+      <c r="B88" t="n">
+        <v>95000000000</v>
+      </c>
+      <c r="C88" t="n">
+        <v>70000000000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>19082800</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>19082900</v>
+      </c>
+      <c r="B90" t="n">
+        <v>87000000000</v>
+      </c>
+      <c r="C90" t="n">
+        <v>75000000000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>19083000</v>
+      </c>
+      <c r="B91" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>19083100</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90000000000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>19090100</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>19090200</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>19090300</v>
+      </c>
+      <c r="B95" t="n">
+        <v>208000000000</v>
+      </c>
+      <c r="C95" t="n">
+        <v>70000000000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>19090400</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>19090500</v>
+      </c>
+      <c r="B97" t="n">
+        <v>87000000000</v>
+      </c>
+      <c r="C97" t="n">
+        <v>75000000000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>19090600</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>19090700</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>19090800</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>19090900</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>19091000</v>
+      </c>
+      <c r="B102" t="n">
+        <v>95000000000</v>
+      </c>
+      <c r="C102" t="n">
+        <v>85000000000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>19091100</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>19091200</v>
+      </c>
+      <c r="B104" t="n">
+        <v>115000000000</v>
+      </c>
+      <c r="C104" t="n">
+        <v>101000000000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>19091300</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>19091400</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>19091500</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>24000000000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>19091600</v>
+      </c>
+      <c r="B108" t="n">
+        <v>78000000000</v>
+      </c>
+      <c r="C108" t="n">
+        <v>35000000000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>19091700</v>
+      </c>
+      <c r="B109" t="n">
+        <v>90000000000</v>
+      </c>
+      <c r="C109" t="n">
+        <v>90000000000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>19091800</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>19091900</v>
+      </c>
+      <c r="B111" t="n">
+        <v>87000000000</v>
+      </c>
+      <c r="C111" t="n">
+        <v>75000000000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>19092000</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>19092100</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>19092200</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>19092300</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>19092400</v>
+      </c>
+      <c r="B116" t="n">
+        <v>85000000000</v>
+      </c>
+      <c r="C116" t="n">
+        <v>90000000000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>19092500</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>19092600</v>
+      </c>
+      <c r="B118" t="n">
+        <v>87000000000</v>
+      </c>
+      <c r="C118" t="n">
+        <v>75000000000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>19092700</v>
+      </c>
+      <c r="B119" t="n">
+        <v>18000000000</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>19092800</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>19092900</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>19093000</v>
+      </c>
+      <c r="B122" t="n">
+        <v>125000000000</v>
+      </c>
+      <c r="C122" t="n">
+        <v>90000000000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>19100100</v>
+      </c>
+      <c r="B123" t="n">
+        <v>85000000000</v>
+      </c>
+      <c r="C123" t="n">
+        <v>90000000000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>19100200</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>19100300</v>
+      </c>
+      <c r="B125" t="n">
+        <v>87000000000</v>
+      </c>
+      <c r="C125" t="n">
+        <v>75000000000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>19100400</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>19100500</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>19100600</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>19100700</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>19100800</v>
+      </c>
+      <c r="B130" t="n">
+        <v>85000000000</v>
+      </c>
+      <c r="C130" t="n">
+        <v>95000000000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>19100900</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>19101000</v>
+      </c>
+      <c r="B132" t="n">
+        <v>115000000000</v>
+      </c>
+      <c r="C132" t="n">
+        <v>98000000000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>19101100</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>19101200</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>19101300</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>19101400</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>19101500</v>
+      </c>
+      <c r="B137" t="n">
+        <v>168000000000</v>
+      </c>
+      <c r="C137" t="n">
+        <v>114000000000</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>19101600</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>19101700</v>
+      </c>
+      <c r="B139" t="n">
+        <v>87000000000</v>
+      </c>
+      <c r="C139" t="n">
+        <v>72000000000</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>19101800</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>19101900</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>19102000</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>19102100</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>19102200</v>
+      </c>
+      <c r="B144" t="n">
+        <v>95000000000</v>
+      </c>
+      <c r="C144" t="n">
+        <v>85000000000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>19102300</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>19102400</v>
+      </c>
+      <c r="B146" t="n">
+        <v>87000000000</v>
+      </c>
+      <c r="C146" t="n">
+        <v>72000000000</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>19102500</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>19102600</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>19102700</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>19102800</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>19102900</v>
+      </c>
+      <c r="B151" t="n">
+        <v>95000000000</v>
+      </c>
+      <c r="C151" t="n">
+        <v>85000000000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>19103000</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>19103100</v>
+      </c>
+      <c r="B153" t="n">
+        <v>237000000000</v>
+      </c>
+      <c r="C153" t="n">
+        <v>203000000000</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>19110100</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>19110200</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>19110300</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>19110400</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>19110500</v>
+      </c>
+      <c r="B158" t="n">
+        <v>95000000000</v>
+      </c>
+      <c r="C158" t="n">
+        <v>85000000000</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>19110600</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>19110700</v>
+      </c>
+      <c r="B160" t="n">
+        <v>115000000000</v>
+      </c>
+      <c r="C160" t="n">
+        <v>101000000000</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>19110800</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>19110900</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>19111000</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>19111100</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>19111200</v>
+      </c>
+      <c r="B165" t="n">
+        <v>95000000000</v>
+      </c>
+      <c r="C165" t="n">
+        <v>90000000000</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>19111300</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>19111400</v>
+      </c>
+      <c r="B167" t="n">
+        <v>87000000000</v>
+      </c>
+      <c r="C167" t="n">
+        <v>78000000000</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>19111500</v>
+      </c>
+      <c r="B168" t="n">
+        <v>84000000000</v>
+      </c>
+      <c r="C168" t="n">
+        <v>91000000000</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>19111600</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>19111700</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>19111800</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>19111900</v>
+      </c>
+      <c r="B172" t="n">
+        <v>95000000000</v>
+      </c>
+      <c r="C172" t="n">
+        <v>95000000000</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>19112000</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>19112100</v>
+      </c>
+      <c r="B174" t="n">
+        <v>87000000000</v>
+      </c>
+      <c r="C174" t="n">
+        <v>81000000000</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>19112200</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>19112300</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>19112400</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>19112600</v>
+      </c>
+      <c r="B179" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="C179" t="n">
+        <v>95000000000</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>19112700</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>19112800</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>19112900</v>
+      </c>
+      <c r="B182" t="n">
+        <v>114000000000</v>
+      </c>
+      <c r="C182" t="n">
+        <v>81000000000</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>19113000</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>90000000000</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>19120100</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>19120200</v>
+      </c>
+      <c r="B185" t="n">
+        <v>113000000000</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>19120300</v>
+      </c>
+      <c r="B186" t="n">
+        <v>80000000000</v>
+      </c>
+      <c r="C186" t="n">
+        <v>95000000000</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>19120400</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>19120500</v>
+      </c>
+      <c r="B188" t="n">
+        <v>104000000000</v>
+      </c>
+      <c r="C188" t="n">
+        <v>107000000000</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>19120600</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>19120700</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>19120800</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>19120900</v>
+      </c>
+      <c r="B192" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>19121000</v>
+      </c>
+      <c r="B193" t="n">
+        <v>75000000000</v>
+      </c>
+      <c r="C193" t="n">
+        <v>95000000000</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>19121100</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>19121200</v>
+      </c>
+      <c r="B195" t="n">
+        <v>78000000000</v>
+      </c>
+      <c r="C195" t="n">
+        <v>96000000000</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>19121300</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>19121400</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>19121500</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>24000000000</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>19121600</v>
+      </c>
+      <c r="B199" t="n">
+        <v>78000000000</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>19121700</v>
+      </c>
+      <c r="B200" t="n">
+        <v>75000000000</v>
+      </c>
+      <c r="C200" t="n">
+        <v>95000000000</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>19121800</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>19121900</v>
+      </c>
+      <c r="B202" t="n">
+        <v>78000000000</v>
+      </c>
+      <c r="C202" t="n">
+        <v>81000000000</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>19122000</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>19122100</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>19122200</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>19122300</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>19122400</v>
+      </c>
+      <c r="B207" t="n">
+        <v>70000000000</v>
+      </c>
+      <c r="C207" t="n">
+        <v>90000000000</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>19122500</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>19122600</v>
+      </c>
+      <c r="B209" t="n">
+        <v>78000000000</v>
+      </c>
+      <c r="C209" t="n">
+        <v>81000000000</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>19122700</v>
+      </c>
+      <c r="B210" t="n">
+        <v>18000000000</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>19122800</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>19122900</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>19123000</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>19123100</v>
+      </c>
+      <c r="B214" t="n">
+        <v>198000000000</v>
+      </c>
+      <c r="C214" t="n">
+        <v>175000000000</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>20010100</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>20010200</v>
+      </c>
+      <c r="B216" t="n">
+        <v>104000000000</v>
+      </c>
+      <c r="C216" t="n">
+        <v>107000000000</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>20010300</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>20010400</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>20010500</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>20010600</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>20010700</v>
+      </c>
+      <c r="B221" t="n">
+        <v>70000000000</v>
+      </c>
+      <c r="C221" t="n">
+        <v>80000000000</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>20010800</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>20010900</v>
+      </c>
+      <c r="B223" t="n">
+        <v>78000000000</v>
+      </c>
+      <c r="C223" t="n">
+        <v>81000000000</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>20011000</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>20011100</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>20011200</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>20011300</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>20011400</v>
+      </c>
+      <c r="B228" t="n">
+        <v>70000000000</v>
+      </c>
+      <c r="C228" t="n">
+        <v>80000000000</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>20011500</v>
+      </c>
+      <c r="B229" t="n">
+        <v>78000000000</v>
+      </c>
+      <c r="C229" t="n">
+        <v>42000000000</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>20011600</v>
+      </c>
+      <c r="B230" t="n">
+        <v>78000000000</v>
+      </c>
+      <c r="C230" t="n">
+        <v>81000000000</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>20011700</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>20011800</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>20011900</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>20012000</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>20012100</v>
+      </c>
+      <c r="B235" t="n">
+        <v>70000000000</v>
+      </c>
+      <c r="C235" t="n">
+        <v>75000000000</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>20012200</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>20012300</v>
+      </c>
+      <c r="B237" t="n">
+        <v>78000000000</v>
+      </c>
+      <c r="C237" t="n">
+        <v>81000000000</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>20012400</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>20012500</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>20012600</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>20012700</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>20012800</v>
+      </c>
+      <c r="B242" t="n">
+        <v>80000000000</v>
+      </c>
+      <c r="C242" t="n">
+        <v>70000000000</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>20012900</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>20013000</v>
+      </c>
+      <c r="B244" t="n">
+        <v>110000000000</v>
+      </c>
+      <c r="C244" t="n">
+        <v>107000000000</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>20013100</v>
+      </c>
+      <c r="B245" t="n">
+        <v>147000000000</v>
+      </c>
+      <c r="C245" t="n">
+        <v>135000000000</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>20020100</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>20020200</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>20020300</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>20020400</v>
+      </c>
+      <c r="B249" t="n">
+        <v>90000000000</v>
+      </c>
+      <c r="C249" t="n">
+        <v>70000000000</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>20020500</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>20020600</v>
+      </c>
+      <c r="B251" t="n">
+        <v>84000000000</v>
+      </c>
+      <c r="C251" t="n">
+        <v>84000000000</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>20020700</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>20020800</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>20020900</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>20021000</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>20021100</v>
+      </c>
+      <c r="B256" t="n">
+        <v>95000000000</v>
+      </c>
+      <c r="C256" t="n">
+        <v>70000000000</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>20021200</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>20021300</v>
+      </c>
+      <c r="B258" t="n">
+        <v>114000000000</v>
+      </c>
+      <c r="C258" t="n">
+        <v>87000000000</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>20021400</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>20021500</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>101000000000</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>20021600</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>20021700</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>20021800</v>
+      </c>
+      <c r="B263" t="n">
+        <v>179000000000</v>
+      </c>
+      <c r="C263" t="n">
+        <v>70000000000</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>20021900</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>20022000</v>
+      </c>
+      <c r="B265" t="n">
+        <v>124000000000</v>
+      </c>
+      <c r="C265" t="n">
+        <v>87000000000</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>20022100</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>20022200</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>20022300</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>20022400</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>20022500</v>
+      </c>
+      <c r="B270" t="n">
+        <v>95000000000</v>
+      </c>
+      <c r="C270" t="n">
+        <v>75000000000</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>20022600</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>20022700</v>
+      </c>
+      <c r="B272" t="n">
+        <v>110000000000</v>
+      </c>
+      <c r="C272" t="n">
+        <v>113000000000</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>20022800</v>
+      </c>
+      <c r="B273" t="n">
+        <v>26000000000</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>20022900</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0</v>
+      </c>
+      <c r="C274" t="n">
+        <v>92000000000</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>20030100</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>20030200</v>
+      </c>
+      <c r="B276" t="n">
+        <v>113000000000</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>20030300</v>
+      </c>
+      <c r="B277" t="n">
+        <v>95000000000</v>
+      </c>
+      <c r="C277" t="n">
+        <v>80000000000</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>20030400</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>20030500</v>
+      </c>
+      <c r="B279" t="n">
+        <v>84000000000</v>
+      </c>
+      <c r="C279" t="n">
+        <v>84000000000</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>20030600</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>20030700</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>20030800</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>20030900</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>20031000</v>
+      </c>
+      <c r="B284" t="n">
+        <v>95000000000</v>
+      </c>
+      <c r="C284" t="n">
+        <v>85000000000</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>20031100</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>20031200</v>
+      </c>
+      <c r="B286" t="n">
+        <v>78000000000</v>
+      </c>
+      <c r="C286" t="n">
+        <v>124000000000</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>20031300</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>20031400</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>20031500</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>24000000000</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>20031600</v>
+      </c>
+      <c r="B290" t="n">
+        <v>78000000000</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>20031700</v>
+      </c>
+      <c r="B291" t="n">
+        <v>90000000000</v>
+      </c>
+      <c r="C291" t="n">
+        <v>85000000000</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>20031800</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>20031900</v>
+      </c>
+      <c r="B293" t="n">
+        <v>78000000000</v>
+      </c>
+      <c r="C293" t="n">
+        <v>84000000000</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>20032000</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>20032100</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>20032200</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>20032300</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>20032400</v>
+      </c>
+      <c r="B298" t="n">
+        <v>110000000000</v>
+      </c>
+      <c r="C298" t="n">
+        <v>90000000000</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>20032500</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>20032600</v>
+      </c>
+      <c r="B300" t="n">
+        <v>110000000000</v>
+      </c>
+      <c r="C300" t="n">
+        <v>110000000000</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>20032700</v>
+      </c>
+      <c r="B301" t="n">
+        <v>18000000000</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>20032800</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>20032900</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>20033000</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>20033100</v>
+      </c>
+      <c r="B305" t="n">
+        <v>295000000000</v>
+      </c>
+      <c r="C305" t="n">
+        <v>189000000000</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>20040100</v>
+      </c>
+      <c r="B306" t="n">
+        <v>45000000000</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>20040200</v>
+      </c>
+      <c r="B307" t="n">
+        <v>193000000000</v>
+      </c>
+      <c r="C307" t="n">
+        <v>84000000000</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>20040300</v>
+      </c>
+      <c r="B308" t="n">
+        <v>85000000000</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>20040400</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>20040500</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>20040600</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>20040700</v>
+      </c>
+      <c r="B312" t="n">
+        <v>180000000000</v>
+      </c>
+      <c r="C312" t="n">
+        <v>95000000000</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>20040800</v>
+      </c>
+      <c r="B313" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>20040900</v>
+      </c>
+      <c r="B314" t="n">
+        <v>224000000000</v>
+      </c>
+      <c r="C314" t="n">
+        <v>114000000000</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>20041000</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>20041100</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>20041200</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>20041300</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>20041400</v>
+      </c>
+      <c r="B319" t="n">
+        <v>200000000000</v>
+      </c>
+      <c r="C319" t="n">
+        <v>95000000000</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>20041500</v>
+      </c>
+      <c r="B320" t="n">
+        <v>182000000000</v>
+      </c>
+      <c r="C320" t="n">
+        <v>74000000000</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>20041600</v>
+      </c>
+      <c r="B321" t="n">
+        <v>160000000000</v>
+      </c>
+      <c r="C321" t="n">
+        <v>84000000000</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>20041700</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>20041800</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>20041900</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>20042000</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>20042100</v>
+      </c>
+      <c r="B326" t="n">
+        <v>190000000000</v>
+      </c>
+      <c r="C326" t="n">
+        <v>95000000000</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>20042200</v>
+      </c>
+      <c r="B327" t="n">
+        <v>65000000000</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>20042300</v>
+      </c>
+      <c r="B328" t="n">
+        <v>188000000000</v>
+      </c>
+      <c r="C328" t="n">
+        <v>110000000000</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>20042400</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>20042500</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>20042600</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>20042700</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>20042800</v>
+      </c>
+      <c r="B333" t="n">
+        <v>190000000000</v>
+      </c>
+      <c r="C333" t="n">
+        <v>105000000000</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>20042900</v>
+      </c>
+      <c r="B334" t="n">
+        <v>55000000000</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>20043000</v>
+      </c>
+      <c r="B335" t="n">
+        <v>344000000000</v>
+      </c>
+      <c r="C335" t="n">
+        <v>232000000000</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>20050100</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>20050200</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>20050300</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>20050400</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>20050500</v>
+      </c>
+      <c r="B340" t="n">
+        <v>220000000000</v>
+      </c>
+      <c r="C340" t="n">
+        <v>125000000000</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>20050600</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>20050700</v>
+      </c>
+      <c r="B342" t="n">
+        <v>206000000000</v>
+      </c>
+      <c r="C342" t="n">
+        <v>147000000000</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>20050800</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>20050900</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>20051000</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>20051100</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>20051200</v>
+      </c>
+      <c r="B347" t="n">
+        <v>215000000000</v>
+      </c>
+      <c r="C347" t="n">
+        <v>175000000000</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>20051300</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>20051400</v>
+      </c>
+      <c r="B349" t="n">
+        <v>217000000000</v>
+      </c>
+      <c r="C349" t="n">
+        <v>147000000000</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>20051500</v>
+      </c>
+      <c r="B350" t="n">
+        <v>96000000000</v>
+      </c>
+      <c r="C350" t="n">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>20051600</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>20051700</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>20051800</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>20051900</v>
+      </c>
+      <c r="B354" t="n">
+        <v>225000000000</v>
+      </c>
+      <c r="C354" t="n">
+        <v>175000000000</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>20052000</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>20052100</v>
+      </c>
+      <c r="B356" t="n">
+        <v>253000000000</v>
+      </c>
+      <c r="C356" t="n">
+        <v>173000000000</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>20052200</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>20052300</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>20052400</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>20052500</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>20052600</v>
+      </c>
+      <c r="B361" t="n">
+        <v>230000000000</v>
+      </c>
+      <c r="C361" t="n">
+        <v>140000000000</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>20052700</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>20052800</v>
+      </c>
+      <c r="B363" t="n">
+        <v>247000000000</v>
+      </c>
+      <c r="C363" t="n">
+        <v>149000000000</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>20052900</v>
+      </c>
+      <c r="B364" t="n">
+        <v>32000000000</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
         <is>
           <t>20072900</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="B365" t="n">
+        <v>0</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
         <is>
           <t>20073000</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B366" t="n">
         <v>165000000000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C366" t="n">
         <v>186000000000</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="367">
+      <c r="A367" t="inlineStr">
         <is>
           <t>20073100</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="B367" t="n">
         <v>196000000000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C367" t="n">
         <v>151000000000</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="368">
+      <c r="A368" t="inlineStr">
         <is>
           <t>20080100</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="B368" t="n">
+        <v>0</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
         <is>
           <t>20080200</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="B369" t="n">
+        <v>0</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
         <is>
           <t>20080300</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="B370" t="n">
+        <v>0</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
         <is>
           <t>20080400</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="B371" t="n">
         <v>120000000000</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C371" t="n">
         <v>145000000000</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="372">
+      <c r="A372" t="inlineStr">
         <is>
           <t>20080500</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" t="n">
+      <c r="B372" t="n">
+        <v>0</v>
+      </c>
+      <c r="C372" t="n">
         <v>0</v>
       </c>
     </row>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C372"/>
+  <dimension ref="A1:C374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,10 +4445,8 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>20072900</t>
-        </is>
+      <c r="A365" t="n">
+        <v>20072900</v>
       </c>
       <c r="B365" t="n">
         <v>0</v>
@@ -4458,10 +4456,8 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>20073000</t>
-        </is>
+      <c r="A366" t="n">
+        <v>20073000</v>
       </c>
       <c r="B366" t="n">
         <v>165000000000</v>
@@ -4471,10 +4467,8 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>20073100</t>
-        </is>
+      <c r="A367" t="n">
+        <v>20073100</v>
       </c>
       <c r="B367" t="n">
         <v>196000000000</v>
@@ -4548,6 +4542,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>20080600</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>165000000000</v>
+      </c>
+      <c r="C373" t="n">
+        <v>179000000000</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>20080700</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>0</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C374"/>
+  <dimension ref="A1:C377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4478,10 +4478,8 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>20080100</t>
-        </is>
+      <c r="A368" t="n">
+        <v>20080100</v>
       </c>
       <c r="B368" t="n">
         <v>0</v>
@@ -4491,10 +4489,8 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>20080200</t>
-        </is>
+      <c r="A369" t="n">
+        <v>20080200</v>
       </c>
       <c r="B369" t="n">
         <v>0</v>
@@ -4504,10 +4500,8 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>20080300</t>
-        </is>
+      <c r="A370" t="n">
+        <v>20080300</v>
       </c>
       <c r="B370" t="n">
         <v>0</v>
@@ -4568,6 +4562,45 @@
         <v>0</v>
       </c>
     </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>20080800</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>20080900</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>0</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>20081000</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C377"/>
+  <dimension ref="A1:C384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4511,10 +4511,8 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>20080400</t>
-        </is>
+      <c r="A371" t="n">
+        <v>20080400</v>
       </c>
       <c r="B371" t="n">
         <v>120000000000</v>
@@ -4601,6 +4599,97 @@
         <v>0</v>
       </c>
     </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>20081100</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>120000000000</v>
+      </c>
+      <c r="C378" t="n">
+        <v>130000000000</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>20081200</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>20081300</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0</v>
+      </c>
+      <c r="C380" t="n">
+        <v>190000000000</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>20081400</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>0</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>20081500</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+      <c r="C382" t="n">
+        <v>111000000000</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>20081600</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>20081700</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -4522,10 +4522,8 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>20080500</t>
-        </is>
+      <c r="A372" t="n">
+        <v>20080500</v>
       </c>
       <c r="B372" t="n">
         <v>0</v>
@@ -4684,7 +4682,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>112000000000</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>199000000000</v>
       </c>
       <c r="C380" t="n">
         <v>190000000000</v>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C384"/>
+  <dimension ref="A1:C374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4533,10 +4533,8 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>20080600</t>
-        </is>
+      <c r="A373" t="n">
+        <v>20080600</v>
       </c>
       <c r="B373" t="n">
         <v>165000000000</v>
@@ -4558,136 +4556,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>20080800</t>
-        </is>
-      </c>
-      <c r="B375" t="n">
-        <v>0</v>
-      </c>
-      <c r="C375" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>20080900</t>
-        </is>
-      </c>
-      <c r="B376" t="n">
-        <v>0</v>
-      </c>
-      <c r="C376" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>20081000</t>
-        </is>
-      </c>
-      <c r="B377" t="n">
-        <v>0</v>
-      </c>
-      <c r="C377" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>20081100</t>
-        </is>
-      </c>
-      <c r="B378" t="n">
-        <v>120000000000</v>
-      </c>
-      <c r="C378" t="n">
-        <v>130000000000</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>20081200</t>
-        </is>
-      </c>
-      <c r="B379" t="n">
-        <v>0</v>
-      </c>
-      <c r="C379" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>20081300</t>
-        </is>
-      </c>
-      <c r="B380" t="n">
-        <v>199000000000</v>
-      </c>
-      <c r="C380" t="n">
-        <v>190000000000</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>20081400</t>
-        </is>
-      </c>
-      <c r="B381" t="n">
-        <v>0</v>
-      </c>
-      <c r="C381" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>20081500</t>
-        </is>
-      </c>
-      <c r="B382" t="n">
-        <v>0</v>
-      </c>
-      <c r="C382" t="n">
-        <v>111000000000</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>20081600</t>
-        </is>
-      </c>
-      <c r="B383" t="n">
-        <v>0</v>
-      </c>
-      <c r="C383" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>20081700</t>
-        </is>
-      </c>
-      <c r="B384" t="n">
-        <v>112000000000</v>
-      </c>
-      <c r="C384" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C374"/>
+  <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4544,16 +4544,153 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="inlineStr">
+      <c r="A374" t="n">
+        <v>20080700</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>20080800</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>20080900</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
         <is>
-          <t>20080700</t>
+          <t>20081000</t>
         </is>
       </c>
-      <c r="B374" t="n">
-        <v>0</v>
-      </c>
-      <c r="C374" t="n">
-        <v>0</v>
+      <c r="B377" t="n">
+        <v>0</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>20081100</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>120000000000</v>
+      </c>
+      <c r="C378" t="n">
+        <v>130000000000</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>20081200</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>20081300</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>199000000000</v>
+      </c>
+      <c r="C380" t="n">
+        <v>190000000000</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>20081400</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>0</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>20081500</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+      <c r="C382" t="n">
+        <v>111000000000</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>20081600</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>20081700</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>112000000000</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>20081800</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0</v>
+      </c>
+      <c r="C385" t="n">
+        <v>120000000000</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C385"/>
+  <dimension ref="A1:C391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4577,10 +4577,8 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>20081000</t>
-        </is>
+      <c r="A377" t="n">
+        <v>20081000</v>
       </c>
       <c r="B377" t="n">
         <v>0</v>
@@ -4590,10 +4588,8 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>20081100</t>
-        </is>
+      <c r="A378" t="n">
+        <v>20081100</v>
       </c>
       <c r="B378" t="n">
         <v>120000000000</v>
@@ -4603,10 +4599,8 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>20081200</t>
-        </is>
+      <c r="A379" t="n">
+        <v>20081200</v>
       </c>
       <c r="B379" t="n">
         <v>0</v>
@@ -4616,10 +4610,8 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>20081300</t>
-        </is>
+      <c r="A380" t="n">
+        <v>20081300</v>
       </c>
       <c r="B380" t="n">
         <v>199000000000</v>
@@ -4687,10 +4679,88 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>120000000000</v>
       </c>
       <c r="C385" t="n">
         <v>120000000000</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>20081900</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>0</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>20082000</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>165000000000</v>
+      </c>
+      <c r="C387" t="n">
+        <v>162000000000</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>20082100</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>0</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>20082200</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>0</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>20082300</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>0</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>20082400</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>0</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C391"/>
+  <dimension ref="A1:C392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4621,10 +4621,8 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>20081400</t>
-        </is>
+      <c r="A381" t="n">
+        <v>20081400</v>
       </c>
       <c r="B381" t="n">
         <v>0</v>
@@ -4763,6 +4761,19 @@
         <v>0</v>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>20082500</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>0</v>
+      </c>
+      <c r="C392" t="n">
+        <v>110000000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C392"/>
+  <dimension ref="A1:C391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4632,10 +4632,8 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>20081500</t>
-        </is>
+      <c r="A382" t="n">
+        <v>20081500</v>
       </c>
       <c r="B382" t="n">
         <v>0</v>
@@ -4761,19 +4759,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>20082500</t>
-        </is>
-      </c>
-      <c r="B392" t="n">
-        <v>0</v>
-      </c>
-      <c r="C392" t="n">
-        <v>110000000000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C391"/>
+  <dimension ref="A1:C398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4643,10 +4643,8 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>20081600</t>
-        </is>
+      <c r="A383" t="n">
+        <v>20081600</v>
       </c>
       <c r="B383" t="n">
         <v>0</v>
@@ -4656,10 +4654,8 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>20081700</t>
-        </is>
+      <c r="A384" t="n">
+        <v>20081700</v>
       </c>
       <c r="B384" t="n">
         <v>112000000000</v>
@@ -4669,10 +4665,8 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>20081800</t>
-        </is>
+      <c r="A385" t="n">
+        <v>20081800</v>
       </c>
       <c r="B385" t="n">
         <v>120000000000</v>
@@ -4682,10 +4676,8 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>20081900</t>
-        </is>
+      <c r="A386" t="n">
+        <v>20081900</v>
       </c>
       <c r="B386" t="n">
         <v>0</v>
@@ -4695,10 +4687,8 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>20082000</t>
-        </is>
+      <c r="A387" t="n">
+        <v>20082000</v>
       </c>
       <c r="B387" t="n">
         <v>165000000000</v>
@@ -4759,6 +4749,97 @@
         <v>0</v>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>20082500</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>120000000000</v>
+      </c>
+      <c r="C392" t="n">
+        <v>110000000000</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>20082600</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>0</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>20082700</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>165000000000</v>
+      </c>
+      <c r="C394" t="n">
+        <v>162000000000</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>20082800</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>22000000000</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>20082900</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>20083000</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>0</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>20083100</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>180000000000</v>
+      </c>
+      <c r="C398" t="n">
+        <v>100000000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C398"/>
+  <dimension ref="A1:C391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4698,10 +4698,8 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>20082100</t>
-        </is>
+      <c r="A388" t="n">
+        <v>20082100</v>
       </c>
       <c r="B388" t="n">
         <v>0</v>
@@ -4749,97 +4747,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>20082500</t>
-        </is>
-      </c>
-      <c r="B392" t="n">
-        <v>120000000000</v>
-      </c>
-      <c r="C392" t="n">
-        <v>110000000000</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>20082600</t>
-        </is>
-      </c>
-      <c r="B393" t="n">
-        <v>0</v>
-      </c>
-      <c r="C393" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>20082700</t>
-        </is>
-      </c>
-      <c r="B394" t="n">
-        <v>165000000000</v>
-      </c>
-      <c r="C394" t="n">
-        <v>162000000000</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>20082800</t>
-        </is>
-      </c>
-      <c r="B395" t="n">
-        <v>22000000000</v>
-      </c>
-      <c r="C395" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>20082900</t>
-        </is>
-      </c>
-      <c r="B396" t="n">
-        <v>0</v>
-      </c>
-      <c r="C396" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>20083000</t>
-        </is>
-      </c>
-      <c r="B397" t="n">
-        <v>0</v>
-      </c>
-      <c r="C397" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>20083100</t>
-        </is>
-      </c>
-      <c r="B398" t="n">
-        <v>180000000000</v>
-      </c>
-      <c r="C398" t="n">
-        <v>100000000000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C391"/>
+  <dimension ref="A1:C398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4709,42 +4709,125 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="inlineStr">
+      <c r="A389" t="n">
+        <v>20082200</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>20082300</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>20082400</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>20082500</v>
+      </c>
+      <c r="B392" t="n">
+        <v>120000000000</v>
+      </c>
+      <c r="C392" t="n">
+        <v>110000000000</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
         <is>
-          <t>20082200</t>
+          <t>20082600</t>
         </is>
       </c>
-      <c r="B389" t="n">
-        <v>0</v>
-      </c>
-      <c r="C389" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
+      <c r="B393" t="n">
+        <v>0</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
         <is>
-          <t>20082300</t>
+          <t>20082700</t>
         </is>
       </c>
-      <c r="B390" t="n">
-        <v>0</v>
-      </c>
-      <c r="C390" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
+      <c r="B394" t="n">
+        <v>165000000000</v>
+      </c>
+      <c r="C394" t="n">
+        <v>162000000000</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
         <is>
-          <t>20082400</t>
+          <t>20082800</t>
         </is>
       </c>
-      <c r="B391" t="n">
-        <v>0</v>
-      </c>
-      <c r="C391" t="n">
-        <v>0</v>
+      <c r="B395" t="n">
+        <v>22000000000</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>20082900</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>20083000</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>0</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>20083100</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>180000000000</v>
+      </c>
+      <c r="C398" t="n">
+        <v>100000000000</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C398"/>
+  <dimension ref="A1:C405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4830,6 +4830,97 @@
         <v>100000000000</v>
       </c>
     </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>20090100</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>120000000000</v>
+      </c>
+      <c r="C399" t="n">
+        <v>110000000000</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>20090200</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>0</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>20090300</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>0</v>
+      </c>
+      <c r="C401" t="n">
+        <v>162000000000</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>20090400</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>0</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>20090500</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>0</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>20090600</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>0</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>20090700</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>0</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C405"/>
+  <dimension ref="A1:C412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4753,10 +4753,8 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>20082600</t>
-        </is>
+      <c r="A393" t="n">
+        <v>20082600</v>
       </c>
       <c r="B393" t="n">
         <v>0</v>
@@ -4766,10 +4764,8 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>20082700</t>
-        </is>
+      <c r="A394" t="n">
+        <v>20082700</v>
       </c>
       <c r="B394" t="n">
         <v>165000000000</v>
@@ -4779,10 +4775,8 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>20082800</t>
-        </is>
+      <c r="A395" t="n">
+        <v>20082800</v>
       </c>
       <c r="B395" t="n">
         <v>22000000000</v>
@@ -4792,10 +4786,8 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>20082900</t>
-        </is>
+      <c r="A396" t="n">
+        <v>20082900</v>
       </c>
       <c r="B396" t="n">
         <v>0</v>
@@ -4805,10 +4797,8 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>20083000</t>
-        </is>
+      <c r="A397" t="n">
+        <v>20083000</v>
       </c>
       <c r="B397" t="n">
         <v>0</v>
@@ -4818,10 +4808,8 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>20083100</t>
-        </is>
+      <c r="A398" t="n">
+        <v>20083100</v>
       </c>
       <c r="B398" t="n">
         <v>180000000000</v>
@@ -4831,10 +4819,8 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>20090100</t>
-        </is>
+      <c r="A399" t="n">
+        <v>20090100</v>
       </c>
       <c r="B399" t="n">
         <v>120000000000</v>
@@ -4844,10 +4830,8 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>20090200</t>
-        </is>
+      <c r="A400" t="n">
+        <v>20090200</v>
       </c>
       <c r="B400" t="n">
         <v>0</v>
@@ -4857,13 +4841,11 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>20090300</t>
-        </is>
+      <c r="A401" t="n">
+        <v>20090300</v>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>165000000000</v>
       </c>
       <c r="C401" t="n">
         <v>162000000000</v>
@@ -4921,6 +4903,97 @@
         <v>0</v>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>20090800</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>120000000000</v>
+      </c>
+      <c r="C406" t="n">
+        <v>150000000000</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>20090900</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>0</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>20091000</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>199000000000</v>
+      </c>
+      <c r="C408" t="n">
+        <v>192000000000</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>20091100</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>0</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>20091200</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>0</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>20091300</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>0</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>20091400</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/issues_maturities.xlsx
+++ b/.idea/issues_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C412"/>
+  <dimension ref="A1:C402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4864,136 +4864,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>20090500</t>
-        </is>
-      </c>
-      <c r="B403" t="n">
-        <v>0</v>
-      </c>
-      <c r="C403" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>20090600</t>
-        </is>
-      </c>
-      <c r="B404" t="n">
-        <v>0</v>
-      </c>
-      <c r="C404" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>20090700</t>
-        </is>
-      </c>
-      <c r="B405" t="n">
-        <v>0</v>
-      </c>
-      <c r="C405" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>20090800</t>
-        </is>
-      </c>
-      <c r="B406" t="n">
-        <v>120000000000</v>
-      </c>
-      <c r="C406" t="n">
-        <v>150000000000</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>20090900</t>
-        </is>
-      </c>
-      <c r="B407" t="n">
-        <v>0</v>
-      </c>
-      <c r="C407" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>20091000</t>
-        </is>
-      </c>
-      <c r="B408" t="n">
-        <v>199000000000</v>
-      </c>
-      <c r="C408" t="n">
-        <v>192000000000</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>20091100</t>
-        </is>
-      </c>
-      <c r="B409" t="n">
-        <v>0</v>
-      </c>
-      <c r="C409" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>20091200</t>
-        </is>
-      </c>
-      <c r="B410" t="n">
-        <v>0</v>
-      </c>
-      <c r="C410" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>20091300</t>
-        </is>
-      </c>
-      <c r="B411" t="n">
-        <v>0</v>
-      </c>
-      <c r="C411" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>20091400</t>
-        </is>
-      </c>
-      <c r="B412" t="n">
-        <v>0</v>
-      </c>
-      <c r="C412" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
